--- a/jpcore-r4/feature/kohe_JPPatinet.name/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/kohe_JPPatinet.name/StructureDefinition-jp-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="479">
   <si>
     <t>Property</t>
   </si>
@@ -1250,10 +1250,12 @@
     <t>An identifier for this qualification for the practitioner</t>
   </si>
   <si>
-    <t>An identifier that applies to this person's qualification in this role.</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the qualification.</t>
+    <t>An identifier that applies to this person's qualification in this role.
+この人物のこの役割における資格に適用される識別子。</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the qualification.
+多くの場合、資格には特定の識別子が割り当てられる。</t>
   </si>
   <si>
     <t>.playingEntity.playingRole[classCode=QUAL].id</t>
@@ -1269,78 +1271,30 @@
     <t>Coded representation of the qualification</t>
   </si>
   <si>
-    <t>Coded representation of the qualification.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Specific qualification the practitioner has to provide a service.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
-  </si>
-  <si>
-    <t>./Qualifications.Value</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.period</t>
-  </si>
-  <si>
-    <t>Period during which the qualification is valid</t>
-  </si>
-  <si>
-    <t>Period during which the qualification is valid.</t>
-  </si>
-  <si>
-    <t>Qualifications are often for a limited period of time, and can be revoked.</t>
-  </si>
-  <si>
-    <t>.playingEntity.playingRole[classCode=QUAL].effectiveTime</t>
-  </si>
-  <si>
-    <t>./Qualifications.StartDate and ./Qualifications.EndDate</t>
-  </si>
-  <si>
-    <t>Practitioner.qualification.issuer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that regulates and issues the qualification</t>
-  </si>
-  <si>
-    <t>Organization that regulates and issues the qualification.</t>
-  </si>
-  <si>
-    <t>.playingEntity.playingRole[classCode=QUAL].scoper</t>
-  </si>
-  <si>
-    <t>@default</t>
-  </si>
-  <si>
-    <t>Certification, licenses, or training pertaining to the provision of care</t>
-  </si>
-  <si>
-    <t>The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certian locality.</t>
-  </si>
-  <si>
-    <t>An identifier that applies to this person's qualification in this role.
-この人物のこの役割における資格に適用される識別子。</t>
-  </si>
-  <si>
-    <t>Often, specific identities are assigned for the qualification.
-多くの場合、資格には特定の識別子が割り当てられる。</t>
-  </si>
-  <si>
     <t>Coded representation of the qualification.
 資格のコード化された表現。</t>
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
 すべての用語の使用がこの一般的なパターンに適合するわけではない。いくつかのケースでは、モデルはCodeableConceptを使用せず、Codingを直接使用し、テキスト、コーディング、翻訳、要素間の関係、および前後の調整を管理するための独自の構造を提供することが望ましい。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Specific qualification the practitioner has to provide a service.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
+  </si>
+  <si>
+    <t>./Qualifications.Value</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.period</t>
+  </si>
+  <si>
+    <t>Period during which the qualification is valid</t>
   </si>
   <si>
     <t>Period during which the qualification is valid.
@@ -1357,6 +1311,22 @@
 資格は期間限定のものが多く、取り消されることもあります。</t>
   </si>
   <si>
+    <t>.playingEntity.playingRole[classCode=QUAL].effectiveTime</t>
+  </si>
+  <si>
+    <t>./Qualifications.StartDate and ./Qualifications.EndDate</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that regulates and issues the qualification</t>
+  </si>
+  <si>
     <t>Organization that regulates and issues the qualification.
 資格を規制し、発行する機関</t>
   </si>
@@ -1365,7 +1335,16 @@
 参照は実際のFHIRリソースへの参照でなければならず、解決可能でなければなりません。解決は URL からの検索、またはリソースタイプによって、絶対参照を正規の URL として扱い、ローカルのレジストリ/リポジトリで検索することで行うことができます。</t>
   </si>
   <si>
+    <t>.playingEntity.playingRole[classCode=QUAL].scoper</t>
+  </si>
+  <si>
     <t>narcoticPrescriptionLicenseNumber</t>
+  </si>
+  <si>
+    <t>Certification, licenses, or training pertaining to the provision of care</t>
+  </si>
+  <si>
+    <t>The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certian locality.</t>
   </si>
   <si>
     <t>【JP-CORE】
@@ -1377,6 +1356,12 @@
 このプロファイルのidentifier.systemには例として北海道の番号「urn:oid:1.2.392.100495.20.3.32.101」を設定している</t>
   </si>
   <si>
+    <t>An identifier that applies to this person's qualification in this role.</t>
+  </si>
+  <si>
+    <t>Often, specific identities are assigned for the qualification.</t>
+  </si>
+  <si>
     <t>Practitioner.qualification.identifier.id</t>
   </si>
   <si>
@@ -1537,6 +1522,18 @@
   </si>
   <si>
     <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
+    <t>Coded representation of the qualification.</t>
+  </si>
+  <si>
+    <t>Period during which the qualification is valid.</t>
+  </si>
+  <si>
+    <t>Qualifications are often for a limited period of time, and can be revoked.</t>
+  </si>
+  <si>
+    <t>Organization that regulates and issues the qualification.</t>
   </si>
   <si>
     <t>medicalRegistrationNumber</t>
@@ -1887,7 +1884,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM86"/>
+  <dimension ref="A1:AM78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6646,7 +6643,9 @@
       <c r="L43" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M43" s="2"/>
+      <c r="M43" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6671,13 +6670,13 @@
         <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>76</v>
@@ -6716,7 +6715,7 @@
         <v>367</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6724,7 +6723,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6750,14 +6749,16 @@
         <v>230</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6806,7 +6807,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6824,10 +6825,10 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6835,7 +6836,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6858,15 +6859,17 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6915,7 +6918,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6933,7 +6936,7 @@
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6947,7 +6950,7 @@
         <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>76</v>
@@ -6972,12 +6975,14 @@
         <v>361</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -7417,11 +7422,11 @@
         <v>377</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>76</v>
@@ -7499,7 +7504,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7507,7 +7512,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>86</v>
@@ -7522,17 +7527,15 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>382</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>182</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>76</v>
@@ -7557,13 +7560,13 @@
         <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>385</v>
+        <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>76</v>
@@ -7581,10 +7584,10 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>381</v>
+        <v>184</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
@@ -7593,16 +7596,16 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>367</v>
+        <v>185</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>388</v>
+        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7610,18 +7613,18 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>76</v>
@@ -7633,20 +7636,18 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>390</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>407</v>
+        <v>187</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7682,40 +7683,40 @@
         <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>389</v>
+        <v>191</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>393</v>
+        <v>185</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>394</v>
+        <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7723,7 +7724,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7740,24 +7741,26 @@
         <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>396</v>
+        <v>106</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7781,13 +7784,13 @@
         <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>416</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>417</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>76</v>
@@ -7805,7 +7808,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7820,10 +7823,10 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7834,11 +7837,9 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>76</v>
       </c>
@@ -7847,7 +7848,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>76</v>
@@ -7856,21 +7857,23 @@
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
       </c>
@@ -7894,13 +7897,13 @@
         <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>76</v>
+        <v>425</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>426</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>427</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>76</v>
@@ -7918,13 +7921,13 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>360</v>
+        <v>428</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
@@ -7933,13 +7936,13 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -7947,7 +7950,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7955,7 +7958,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>86</v>
@@ -7967,31 +7970,35 @@
         <v>76</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>182</v>
+        <v>431</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>76</v>
+        <v>435</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>76</v>
+        <v>436</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>76</v>
@@ -8027,7 +8034,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>184</v>
+        <v>437</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8039,16 +8046,16 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>185</v>
+        <v>439</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>440</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8056,18 +8063,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>370</v>
+        <v>441</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>76</v>
@@ -8076,19 +8083,19 @@
         <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>133</v>
+        <v>442</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>187</v>
+        <v>443</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>135</v>
+        <v>444</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8102,7 +8109,7 @@
         <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>76</v>
+        <v>445</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>76</v>
@@ -8138,28 +8145,28 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>191</v>
+        <v>446</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>76</v>
+        <v>447</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>185</v>
+        <v>448</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8167,43 +8174,39 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>371</v>
+        <v>449</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>373</v>
+        <v>450</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8251,28 +8254,28 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>375</v>
+        <v>452</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>76</v>
+        <v>453</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>129</v>
+        <v>454</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8280,7 +8283,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8291,7 +8294,7 @@
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>76</v>
@@ -8300,21 +8303,21 @@
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>144</v>
+        <v>398</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>377</v>
+        <v>456</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>76</v>
       </c>
@@ -8362,13 +8365,13 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>376</v>
+        <v>459</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
@@ -8377,13 +8380,13 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>76</v>
+        <v>460</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>380</v>
+        <v>461</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>76</v>
+        <v>462</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8391,7 +8394,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8399,7 +8402,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>86</v>
@@ -8414,13 +8417,13 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>382</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>182</v>
+        <v>383</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>183</v>
+        <v>463</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8447,13 +8450,13 @@
         <v>76</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>76</v>
+        <v>387</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>76</v>
@@ -8471,10 +8474,10 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>184</v>
+        <v>381</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>86</v>
@@ -8483,16 +8486,16 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>185</v>
+        <v>367</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8500,18 +8503,18 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>76</v>
@@ -8523,18 +8526,18 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>391</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8570,40 +8573,40 @@
         <v>76</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>191</v>
+        <v>390</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>185</v>
+        <v>395</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>76</v>
+        <v>396</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8611,7 +8614,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8628,26 +8631,22 @@
         <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>106</v>
+        <v>398</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8671,13 +8670,13 @@
         <v>76</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>421</v>
+        <v>76</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>422</v>
+        <v>76</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>76</v>
@@ -8695,7 +8694,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8710,10 +8709,10 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8724,9 +8723,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8735,7 +8736,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>76</v>
@@ -8744,23 +8745,21 @@
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8784,13 +8783,13 @@
         <v>76</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>431</v>
+        <v>76</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>432</v>
+        <v>76</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>76</v>
@@ -8808,13 +8807,13 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>433</v>
+        <v>360</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
@@ -8823,13 +8822,13 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8837,7 +8836,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>435</v>
+        <v>369</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8845,7 +8844,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>86</v>
@@ -8857,35 +8856,31 @@
         <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>436</v>
+        <v>182</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>440</v>
+        <v>76</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>441</v>
+        <v>76</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>76</v>
@@ -8921,7 +8916,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>442</v>
+        <v>184</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8933,16 +8928,16 @@
         <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>444</v>
+        <v>185</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>445</v>
+        <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -8950,18 +8945,18 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>446</v>
+        <v>370</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>76</v>
@@ -8970,19 +8965,19 @@
         <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>447</v>
+        <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>448</v>
+        <v>187</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>449</v>
+        <v>135</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8996,7 +8991,7 @@
         <v>76</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>76</v>
@@ -9032,28 +9027,28 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>451</v>
+        <v>191</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>452</v>
+        <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>453</v>
+        <v>185</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -9061,39 +9056,43 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>454</v>
+        <v>371</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>455</v>
+        <v>373</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9141,28 +9140,28 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>457</v>
+        <v>375</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>459</v>
+        <v>129</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -9170,7 +9169,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>376</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9181,7 +9180,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>76</v>
@@ -9190,21 +9189,21 @@
         <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>396</v>
+        <v>144</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>461</v>
+        <v>377</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9252,13 +9251,13 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>464</v>
+        <v>376</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
@@ -9267,13 +9266,13 @@
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>466</v>
+        <v>380</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>467</v>
+        <v>76</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -9281,7 +9280,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9289,7 +9288,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>86</v>
@@ -9304,13 +9303,13 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>382</v>
+        <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>383</v>
+        <v>182</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>384</v>
+        <v>183</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9337,13 +9336,13 @@
         <v>76</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>385</v>
+        <v>76</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>76</v>
@@ -9361,10 +9360,10 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>381</v>
+        <v>184</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>86</v>
@@ -9373,16 +9372,16 @@
         <v>76</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>367</v>
+        <v>185</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>388</v>
+        <v>76</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -9390,18 +9389,18 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>76</v>
@@ -9413,18 +9412,18 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>390</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9460,40 +9459,40 @@
         <v>76</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>389</v>
+        <v>191</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>393</v>
+        <v>185</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>394</v>
+        <v>76</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
@@ -9501,7 +9500,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9518,22 +9517,26 @@
         <v>76</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>396</v>
+        <v>106</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9557,13 +9560,13 @@
         <v>76</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>76</v>
+        <v>416</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>76</v>
+        <v>417</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>76</v>
@@ -9581,7 +9584,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9596,10 +9599,10 @@
         <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9610,11 +9613,9 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>76</v>
       </c>
@@ -9623,7 +9624,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>76</v>
@@ -9632,21 +9633,23 @@
         <v>76</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
       </c>
@@ -9670,13 +9673,13 @@
         <v>76</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>76</v>
+        <v>425</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>76</v>
+        <v>426</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>76</v>
+        <v>427</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>76</v>
@@ -9694,13 +9697,13 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>360</v>
+        <v>428</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>76</v>
@@ -9709,13 +9712,13 @@
         <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
@@ -9723,7 +9726,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>369</v>
+        <v>430</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9731,7 +9734,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>86</v>
@@ -9743,31 +9746,35 @@
         <v>76</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>182</v>
+        <v>431</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>76</v>
+        <v>470</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>76</v>
+        <v>436</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>76</v>
@@ -9803,7 +9810,7 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>184</v>
+        <v>437</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9815,16 +9822,16 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>185</v>
+        <v>439</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>76</v>
+        <v>440</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>76</v>
@@ -9832,18 +9839,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>370</v>
+        <v>441</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>76</v>
@@ -9852,19 +9859,19 @@
         <v>76</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>133</v>
+        <v>442</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>187</v>
+        <v>443</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>135</v>
+        <v>444</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9878,7 +9885,7 @@
         <v>76</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>76</v>
+        <v>445</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>76</v>
@@ -9914,28 +9921,28 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>191</v>
+        <v>446</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>76</v>
+        <v>447</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>185</v>
+        <v>448</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -9943,43 +9950,39 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>371</v>
+        <v>449</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>373</v>
+        <v>450</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>76</v>
       </c>
@@ -10027,28 +10030,28 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>375</v>
+        <v>452</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>76</v>
+        <v>453</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>129</v>
+        <v>454</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -10056,7 +10059,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10067,7 +10070,7 @@
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>76</v>
@@ -10076,21 +10079,21 @@
         <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>144</v>
+        <v>398</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>377</v>
+        <v>456</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>76</v>
       </c>
@@ -10138,13 +10141,13 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>376</v>
+        <v>459</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
@@ -10153,13 +10156,13 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>76</v>
+        <v>460</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>380</v>
+        <v>461</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>76</v>
+        <v>462</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10167,7 +10170,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10175,7 +10178,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>86</v>
@@ -10190,13 +10193,13 @@
         <v>76</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>88</v>
+        <v>382</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>182</v>
+        <v>383</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>183</v>
+        <v>463</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10223,13 +10226,13 @@
         <v>76</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>76</v>
+        <v>387</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>76</v>
@@ -10247,10 +10250,10 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>184</v>
+        <v>381</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>86</v>
@@ -10259,16 +10262,16 @@
         <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>185</v>
+        <v>367</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>76</v>
+        <v>389</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10276,18 +10279,18 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>76</v>
@@ -10299,18 +10302,18 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>133</v>
+        <v>391</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
       </c>
@@ -10346,40 +10349,40 @@
         <v>76</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>191</v>
+        <v>390</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>185</v>
+        <v>395</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>76</v>
+        <v>396</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10404,26 +10407,22 @@
         <v>76</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>106</v>
+        <v>398</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>76</v>
       </c>
@@ -10447,13 +10446,13 @@
         <v>76</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>421</v>
+        <v>76</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>422</v>
+        <v>76</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10471,7 +10470,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10486,10 +10485,10 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>76</v>
@@ -10500,7 +10499,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10511,7 +10510,7 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>76</v>
@@ -10520,22 +10519,22 @@
         <v>76</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>382</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -10560,13 +10559,13 @@
         <v>76</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>430</v>
+        <v>110</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>431</v>
+        <v>111</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>432</v>
+        <v>112</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>76</v>
@@ -10584,13 +10583,13 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10599,901 +10598,15 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>76</v>
+        <v>478</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AM86" t="s" s="2">
         <v>76</v>
       </c>
     </row>
